--- a/17-Discrete Choice/Calculations.xlsx
+++ b/17-Discrete Choice/Calculations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://luky-my.sharepoint.com/personal/vsgo222_uky_edu/Documents/YR_1/Spring/CE599/ce599/17-Discrete Choice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UoK\OneDrive - University of Kentucky\YR_1\Spring\CE599\ce599\17-Discrete Choice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A4A39B35-5411-4148-9B7D-38CB3A41010C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC1048BDC11F63425BDE58E3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9548E43-AA29-4CAE-8E4C-9857294FF0EA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="645" windowWidth="11415" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,6 +405,7 @@
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
